--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/REFrameworkNET5/StudioTemplates/REFramework/contentFiles/any/any/pt2/VisualBasic/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uipath_lesson\01 과제모음_남미\20231117_REFramework_오피스디포견적서메일발송_요청메일기준\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8C54E24-BA5C-4BF9-8DAB-2778512EC11B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC44377-BB07-42D8-95E1-81C5792123CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>Name</t>
   </si>
@@ -160,13 +160,510 @@
   </si>
   <si>
     <t>ProcessABCQueue</t>
+  </si>
+  <si>
+    <t>https://www.officedepot.co.kr/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>오피스디포</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 사이트</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>strURL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>strOutlookAccount</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>annima11@hotmail.com</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>strOutlookFolder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>strToMailAccount</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>annima11@naver.com</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>받는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 메일주소</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>strPDFFileName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>견적서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> pdf 파일명</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>오피스디포_견적서_{0}.pdf</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>strSaveFolderPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">파일 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저장경로</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아웃룩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보내는 메일계정)</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>strMailSaveFolder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>견적서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 작업지시서 다운로드 경로</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>strMailSubject</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>[견적서] {0}_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오피스디포</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>견적서</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>메일 제목</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>strMailBody</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>메일 내용</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안녕하세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+{0} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오피스디포</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>견적서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>송부드립니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감사합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Data\Input\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>견적서요청</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Data\Output\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>견적서</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>받은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>편지함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>견적서요청</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>strOutlookMoveFolder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>받은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>편지함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>견적서처리완료</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아웃룩 메일 폴더 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>아웃룩 메일 폴더 - 처리 완료된 메일 이동 폴더</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -177,6 +674,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -189,6 +687,34 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -211,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -221,9 +747,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -239,7 +777,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -535,53 +1073,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43" style="2" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" style="2" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -598,48 +1137,147 @@
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2"/>
       <c r="C3" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="28.8">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="18.600000000000001" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="18.600000000000001" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="18.600000000000001" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="18.600000000000001" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="18.600000000000001" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="18.600000000000001" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="18.600000000000001" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="95.4">
+      <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="18.600000000000001" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="18.600000000000001" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="18.600000000000001" customHeight="1"/>
+    <row r="17" ht="18.600000000000001" customHeight="1"/>
+    <row r="18" ht="18.600000000000001" customHeight="1"/>
+    <row r="19" ht="18.600000000000001" customHeight="1"/>
+    <row r="20" ht="18.600000000000001" customHeight="1"/>
+    <row r="21" ht="18.600000000000001" customHeight="1"/>
+    <row r="22" ht="18.600000000000001" customHeight="1"/>
+    <row r="23" ht="18.600000000000001" customHeight="1"/>
+    <row r="24" ht="18.600000000000001" customHeight="1"/>
+    <row r="25" ht="18.600000000000001" customHeight="1"/>
+    <row r="26" ht="18.600000000000001" customHeight="1"/>
+    <row r="27" ht="18.600000000000001" customHeight="1"/>
+    <row r="28" ht="18.600000000000001" customHeight="1"/>
+    <row r="29" ht="18.600000000000001" customHeight="1"/>
+    <row r="30" ht="18.600000000000001" customHeight="1"/>
     <row r="31" ht="14.25" customHeight="1"/>
     <row r="32" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
@@ -1608,6 +2246,10 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="1001" ht="14.25" customHeight="1"/>
+    <row r="1002" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2782,7 +3424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uipath_lesson\01 과제모음_남미\20231117_REFramework_오피스디포견적서메일발송_요청메일기준\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GithubProject\estimate_for_Office_Goods\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC44377-BB07-42D8-95E1-81C5792123CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCE15DF-613F-4CC1-B81B-981F5F216581}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,19 +190,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>annima11@hotmail.com</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>strOutlookFolder</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>strToMailAccount</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>annima11@naver.com</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -658,12 +650,20 @@
     <t>아웃룩 메일 폴더 - 처리 완료된 메일 이동 폴더</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>본인 아웃룩 계정</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>받는사람 메일계정</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -716,6 +716,20 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -737,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -747,7 +761,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -759,6 +772,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1076,7 +1092,7 @@
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1089,38 +1105,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -1157,7 +1173,7 @@
       <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1168,99 +1184,99 @@
       <c r="A7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>59</v>
+      <c r="B7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="18.600000000000001" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>73</v>
+        <v>49</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="18.600000000000001" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="18.600000000000001" customHeight="1">
       <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="18.600000000000001" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>68</v>
+        <v>58</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="18.600000000000001" customHeight="1">
       <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="95.4">
       <c r="A13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>66</v>
+      <c r="C13" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="18.600000000000001" customHeight="1">
       <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="18.600000000000001" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>69</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="18.600000000000001" customHeight="1"/>
